--- a/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Habitat-trans_bre.xlsx
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.222171445181273</v>
+        <v>-1.213398902691222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.294968803595404</v>
+        <v>-1.294542567766367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.885551238897884</v>
+        <v>-0.8494799812047223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4130833784970269</v>
+        <v>-0.507567006898751</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.5442608030828995</v>
+        <v>-0.5262934108536655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6438524885457219</v>
+        <v>-0.629109765529714</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3451177087113919</v>
+        <v>-0.4076729611831693</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.277277974594302</v>
+        <v>0.1484668440498108</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.747030964543802</v>
+        <v>1.849309987021877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.261607405310761</v>
+        <v>1.189221030710258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.970943179490041</v>
+        <v>1.918037509303295</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.383727023389324</v>
+        <v>1.542781658446069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.249489841474743</v>
+        <v>3.034558314226953</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.611127677827552</v>
+        <v>4.630351352561525</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.5270404124901636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2299672999007005</v>
+        <v>-0.2299672999007008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06481409758881325</v>
@@ -745,7 +745,7 @@
         <v>0.7333239594561771</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1232505917747341</v>
+        <v>-0.1232505917747343</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.026496430150504</v>
+        <v>-1.005797167253662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.12564301835702</v>
+        <v>-1.074216040256403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4479086535800527</v>
+        <v>-0.4225163326265377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.718105929190335</v>
+        <v>-1.588490494172056</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5348928263333699</v>
+        <v>-0.5064519785606193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.561498416499787</v>
+        <v>-0.5496810966629058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5676004044901942</v>
+        <v>-0.4556696519977369</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5840074292345087</v>
+        <v>-0.5868500424328857</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.162633614966542</v>
+        <v>1.177006259114895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.131378750688301</v>
+        <v>1.173107169040713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.450598182174441</v>
+        <v>1.437419566259291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8742241242101191</v>
+        <v>0.9049399077226985</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.257093037264933</v>
+        <v>1.210940967885933</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.480251711409204</v>
+        <v>1.407797605671394</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.890315824193729</v>
+        <v>3.826106543898581</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8126598529321051</v>
+        <v>0.8278143795169841</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-0.3019810533848961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2134157977794572</v>
+        <v>0.2134157977794576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08125227730740814</v>
@@ -845,7 +845,7 @@
         <v>-0.1872337882025469</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09461280831395642</v>
+        <v>0.09461280831395659</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.862602730749709</v>
+        <v>-2.065672607556691</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.77059957608166</v>
+        <v>-1.944954395361016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.737839739794124</v>
+        <v>-1.683420325693908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.665713777520085</v>
+        <v>-1.495614594753087</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5179179931335444</v>
+        <v>-0.549541072414291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8698198069807005</v>
+        <v>-0.8627437091535194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6999602560565351</v>
+        <v>-0.6892227567095077</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5117949372095529</v>
+        <v>-0.4634396779369608</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.624310792380735</v>
+        <v>1.449528959586934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3324746268859287</v>
+        <v>0.3146980810558779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8479623927387695</v>
+        <v>0.8437353704561008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.750461918797436</v>
+        <v>1.898645558600788</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8994436123667524</v>
+        <v>0.7450094581952139</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5401467202789461</v>
+        <v>0.6101993394390627</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9358350169882332</v>
+        <v>1.09229398844379</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.189261426447413</v>
+        <v>1.334014041667515</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>0.3189269518485237</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.961665958826732</v>
+        <v>-0.9616659588267317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07007411310873929</v>
@@ -945,7 +945,7 @@
         <v>0.5651576876972781</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5975655891398219</v>
+        <v>-0.5975655891398217</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.035481767805305</v>
+        <v>-1.315566746234446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4492941169962125</v>
+        <v>0.3187538677092711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3230883140498716</v>
+        <v>-0.3741992665604154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.997978314915989</v>
+        <v>-1.967890744969313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4081794680116411</v>
+        <v>-0.4701398210359332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2708855037980057</v>
+        <v>0.1254176222358347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4829621796413273</v>
+        <v>-0.5566210464442999</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8326834154012954</v>
+        <v>-0.830906419583001</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.438902869471633</v>
+        <v>1.434659813460931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.526381813446287</v>
+        <v>2.366781764890723</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.162168024651497</v>
+        <v>1.002381382984459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.1617166054102379</v>
+        <v>-0.1082596954533678</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.050651090412444</v>
+        <v>1.06388172201226</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.31571375510406</v>
+        <v>5.532253065942885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.672078267336779</v>
+        <v>3.387405226193854</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1191729545065165</v>
+        <v>-0.03664353417757976</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>0.2080541832687884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.1685358399750035</v>
+        <v>-0.1685358399750033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.00901825308722776</v>
@@ -1045,7 +1045,7 @@
         <v>0.2272992119892043</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.09868282463158286</v>
+        <v>-0.09868282463158275</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6826584995074122</v>
+        <v>-0.7066749916852187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2369556847929029</v>
+        <v>-0.3060540100214432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.336268897095405</v>
+        <v>-0.2886797288785938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8181433437044944</v>
+        <v>-0.7948083627877417</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3497045493939238</v>
+        <v>-0.3519240996802964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1626905295839863</v>
+        <v>-0.2049709083661409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3007185887303183</v>
+        <v>-0.2431696349674354</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3820296928569807</v>
+        <v>-0.3737863697975701</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6087274035988078</v>
+        <v>0.6281493705378767</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8895536789028997</v>
+        <v>0.8664619066187502</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7108240220820489</v>
+        <v>0.6833476449950163</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.482151612933412</v>
+        <v>0.434273477041955</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4404429741748572</v>
+        <v>0.4623991599672847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8766544295618316</v>
+        <v>0.8447330305565921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.052746900322308</v>
+        <v>1.0316881099806</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3545241381707265</v>
+        <v>0.3380410224557027</v>
       </c>
     </row>
     <row r="19">
